--- a/Base/Teams/Football Team/Players Stats.xlsx
+++ b/Base/Teams/Football Team/Players Stats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/Simulation app/Football Team/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Football Team/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBEA85E1-7154-42ED-A9A7-8B87B435C10F}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D5AFEED-FD4E-4CAB-81ED-FF2EA29FC843}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QB" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>J.Slye</t>
+  </si>
+  <si>
+    <t>W.Smallwood</t>
   </si>
 </sst>
 </file>
@@ -773,10 +776,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12D00DA-02B2-4502-AFFA-15E1047659D6}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1037,6 +1040,38 @@
         <v>0</v>
       </c>
       <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>0</v>
       </c>
     </row>
@@ -1224,7 +1259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB2CE9E-CE47-4052-980F-01FA7876F857}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/Base/Teams/Football Team/Players Stats.xlsx
+++ b/Base/Teams/Football Team/Players Stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Football Team/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D5AFEED-FD4E-4CAB-81ED-FF2EA29FC843}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88F57DB5-6397-44D1-9A8C-BC30F5A43290}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QB" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
   <si>
     <t>Name</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>W.Smallwood</t>
+  </si>
+  <si>
+    <t>J.Williams</t>
   </si>
 </sst>
 </file>
@@ -633,10 +636,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459779FE-3466-48C5-B589-C050AA2DD35E}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -766,6 +769,38 @@
         <v>0</v>
       </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>0</v>
       </c>
     </row>
@@ -778,7 +813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12D00DA-02B2-4502-AFFA-15E1047659D6}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>

--- a/Base/Teams/Football Team/Players Stats.xlsx
+++ b/Base/Teams/Football Team/Players Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Football Team/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88F57DB5-6397-44D1-9A8C-BC30F5A43290}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AA3A7E1-8DB0-41E9-B34E-E35AC8830F25}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QB" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>J.Williams</t>
+  </si>
+  <si>
+    <t>G.Gilbert</t>
   </si>
 </sst>
 </file>
@@ -469,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -626,6 +629,44 @@
         <v>0</v>
       </c>
       <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>0</v>
       </c>
     </row>
@@ -638,7 +679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459779FE-3466-48C5-B589-C050AA2DD35E}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
